--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
@@ -2510,9 +2510,6 @@
       <c r="D59" t="s">
         <v>143</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
       <c r="F59" t="s">
         <v>238</v>
       </c>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-01</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220501_110005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
   <si>
     <t>사이트</t>
   </si>
@@ -730,7 +730,7 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SHOFAR</t>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>생각</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1267,7 @@
         <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1296,7 +1293,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1322,7 +1319,7 @@
         <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1374,7 +1371,7 @@
         <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1400,7 +1397,7 @@
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1426,7 +1423,7 @@
         <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1452,7 +1449,7 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1504,7 +1501,7 @@
         <v>233</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1530,7 +1527,7 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1582,7 +1579,7 @@
         <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1608,7 +1605,7 @@
         <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1634,7 +1631,7 @@
         <v>228</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1660,7 +1657,7 @@
         <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1686,7 +1683,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1712,7 +1709,7 @@
         <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1738,7 +1735,7 @@
         <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1764,7 +1761,7 @@
         <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1790,7 +1787,7 @@
         <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1816,7 +1813,7 @@
         <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1842,7 +1839,7 @@
         <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1868,7 +1865,7 @@
         <v>240</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1894,7 +1891,7 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1946,7 +1943,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1972,7 +1969,7 @@
         <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1998,7 +1995,7 @@
         <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2024,7 +2021,7 @@
         <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,7 +2047,7 @@
         <v>240</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,7 +2073,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,7 +2099,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,7 +2125,7 @@
         <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2206,7 +2203,7 @@
         <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,7 +2229,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,7 +2255,7 @@
         <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2310,7 +2307,7 @@
         <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,7 +2333,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2414,7 +2411,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2440,7 +2437,7 @@
         <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,7 +2463,7 @@
         <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2492,7 +2489,7 @@
         <v>248</v>
       </c>
       <c r="H51" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2544,7 +2541,7 @@
         <v>249</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,7 +2567,7 @@
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2596,7 +2593,7 @@
         <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2622,7 +2619,7 @@
         <v>250</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2648,7 +2645,7 @@
         <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2697,7 +2694,7 @@
         <v>240</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2723,7 +2720,7 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2749,7 +2746,7 @@
         <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2801,7 +2798,7 @@
         <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2827,7 +2824,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2853,7 +2850,7 @@
         <v>251</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2879,7 +2876,7 @@
         <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2905,7 +2902,7 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2957,7 +2954,7 @@
         <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2983,7 +2980,7 @@
         <v>254</v>
       </c>
       <c r="H70" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3009,7 +3006,7 @@
         <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3035,7 +3032,7 @@
         <v>250</v>
       </c>
       <c r="H72" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3061,7 +3058,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3087,7 +3084,7 @@
         <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3139,7 +3136,7 @@
         <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3165,7 +3162,7 @@
         <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3191,7 +3188,7 @@
         <v>230</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3217,7 +3214,7 @@
         <v>230</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3243,7 +3240,7 @@
         <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3295,7 +3292,7 @@
         <v>256</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3347,7 +3344,7 @@
         <v>257</v>
       </c>
       <c r="H84" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3425,7 +3422,7 @@
         <v>258</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3451,7 +3448,7 @@
         <v>240</v>
       </c>
       <c r="H88" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3477,7 +3474,7 @@
         <v>259</v>
       </c>
       <c r="H89" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3503,7 +3500,7 @@
         <v>230</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,7 +3526,7 @@
         <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3581,7 +3578,7 @@
         <v>238</v>
       </c>
       <c r="H93" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3607,7 +3604,7 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3659,7 +3656,7 @@
         <v>260</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3685,7 +3682,7 @@
         <v>261</v>
       </c>
       <c r="H97" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3711,7 +3708,7 @@
         <v>234</v>
       </c>
       <c r="H98" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3737,7 +3734,7 @@
         <v>234</v>
       </c>
       <c r="H99" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3763,7 +3760,7 @@
         <v>239</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3789,7 +3786,7 @@
         <v>262</v>
       </c>
       <c r="H101" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
